--- a/data/trans_orig/LAWTONB_2R3-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/LAWTONB_2R3-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>52354</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>39780</v>
+        <v>40920</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>65418</v>
+        <v>66920</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1402874835757633</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1065952966319438</v>
+        <v>0.1096506225162311</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1752957645653034</v>
+        <v>0.1793200663333025</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>106</v>
@@ -765,19 +765,19 @@
         <v>114743</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>95250</v>
+        <v>97205</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>133502</v>
+        <v>136238</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1952241053246341</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1620595779361231</v>
+        <v>0.1653852796345736</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2271419456959566</v>
+        <v>0.2317964934140188</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>163</v>
@@ -786,19 +786,19 @@
         <v>167097</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>144929</v>
+        <v>143509</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>192554</v>
+        <v>191124</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1738889801852443</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1508202563948376</v>
+        <v>0.149343027786856</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2003812934959058</v>
+        <v>0.1988933557311132</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>320835</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>307771</v>
+        <v>306269</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>333409</v>
+        <v>332269</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8597125164242367</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8247042354346962</v>
+        <v>0.8206799336666962</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8934047033680557</v>
+        <v>0.8903493774837686</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>468</v>
@@ -836,19 +836,19 @@
         <v>473006</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>454247</v>
+        <v>451511</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>492499</v>
+        <v>490544</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8047758946753659</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7728580543040436</v>
+        <v>0.7682035065859814</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8379404220638771</v>
+        <v>0.8346147203654265</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>810</v>
@@ -857,19 +857,19 @@
         <v>793841</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>768384</v>
+        <v>769814</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>816009</v>
+        <v>817429</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8261110198147557</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7996187065040943</v>
+        <v>0.8011066442688868</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8491797436051624</v>
+        <v>0.8506569722131436</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>9685</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5213</v>
+        <v>5377</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16907</v>
+        <v>17280</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1099574534449424</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05918841716772635</v>
+        <v>0.06103920350755672</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1919477229900782</v>
+        <v>0.1961732465792313</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -982,19 +982,19 @@
         <v>7804</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3430</v>
+        <v>3277</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14382</v>
+        <v>14787</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1254361217134249</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05513918330081951</v>
+        <v>0.05267528488705565</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2311809732984434</v>
+        <v>0.2376937296685076</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>17</v>
@@ -1003,19 +1003,19 @@
         <v>17489</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>10654</v>
+        <v>10837</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>26100</v>
+        <v>27078</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1163645760584509</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07088849952553716</v>
+        <v>0.07210188783437076</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1736554915561098</v>
+        <v>0.1801637136881521</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>78398</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>71176</v>
+        <v>70803</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>82870</v>
+        <v>82706</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8900425465550575</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8080522770099215</v>
+        <v>0.8038267534207687</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9408115828322736</v>
+        <v>0.9389607964924432</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>53</v>
@@ -1053,19 +1053,19 @@
         <v>54408</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>47830</v>
+        <v>47425</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>58782</v>
+        <v>58935</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8745638782865751</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7688190267015564</v>
+        <v>0.7623062703314925</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9448608166991804</v>
+        <v>0.9473247151129442</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>132</v>
@@ -1074,19 +1074,19 @@
         <v>132806</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>124195</v>
+        <v>123217</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>139641</v>
+        <v>139458</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8836354239415491</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8263445084438903</v>
+        <v>0.8198362863118481</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9291115004744629</v>
+        <v>0.9278981121656295</v>
       </c>
     </row>
     <row r="9">
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8886</v>
+        <v>8413</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06345829178252897</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2157125062799629</v>
+        <v>0.2042387363299184</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -1199,19 +1199,19 @@
         <v>3298</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8578</v>
+        <v>7911</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1226959491459323</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03259384734101865</v>
+        <v>0.03247575962485568</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3191017330800304</v>
+        <v>0.2942801055691313</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>5</v>
@@ -1220,7 +1220,7 @@
         <v>5912</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2069</v>
+        <v>2058</v>
       </c>
       <c r="T10" s="5" t="n">
         <v>12959</v>
@@ -1229,10 +1229,10 @@
         <v>0.08684944202929616</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03038691507941839</v>
+        <v>0.03023558283919359</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.190358695179206</v>
+        <v>0.1903607610317656</v>
       </c>
     </row>
     <row r="11">
@@ -1249,7 +1249,7 @@
         <v>38580</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>32308</v>
+        <v>32781</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>41194</v>
@@ -1258,7 +1258,7 @@
         <v>0.9365417082174711</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7842874937200368</v>
+        <v>0.7957612636700816</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1270,19 +1270,19 @@
         <v>23583</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>18303</v>
+        <v>18970</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>26005</v>
+        <v>26008</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8773040508540677</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6808982669199696</v>
+        <v>0.7057198944308687</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9674061526589813</v>
+        <v>0.9675242403751443</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>57</v>
@@ -1294,16 +1294,16 @@
         <v>55116</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>66006</v>
+        <v>66017</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9131505579707039</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.809641304820794</v>
+        <v>0.8096392389682349</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9696130849205815</v>
+        <v>0.9697644171608064</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>64653</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>51422</v>
+        <v>52804</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>80947</v>
+        <v>81300</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1286718283285648</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.102339657825441</v>
+        <v>0.1050894556205817</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.161099927688192</v>
+        <v>0.1618023642772639</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>116</v>
@@ -1416,19 +1416,19 @@
         <v>125845</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>106092</v>
+        <v>105823</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>147072</v>
+        <v>147711</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1859291040717413</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1567462371868074</v>
+        <v>0.1563484564930017</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.217291941809795</v>
+        <v>0.2182355184579468</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>185</v>
@@ -1437,19 +1437,19 @@
         <v>190498</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>164539</v>
+        <v>164992</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>218670</v>
+        <v>215710</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1615335818302416</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1395212927983874</v>
+        <v>0.139905424332552</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1854226919725903</v>
+        <v>0.1829125183753606</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>437813</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>421519</v>
+        <v>421166</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>451044</v>
+        <v>449662</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8713281716714352</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8389000723118077</v>
+        <v>0.8381976357227359</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.897660342174559</v>
+        <v>0.8949105443794181</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>545</v>
@@ -1487,19 +1487,19 @@
         <v>550997</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>529770</v>
+        <v>529131</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>570750</v>
+        <v>571019</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8140708959282587</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7827080581902053</v>
+        <v>0.7817644815420532</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8432537628131926</v>
+        <v>0.8436515435069986</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>999</v>
@@ -1508,19 +1508,19 @@
         <v>988810</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>960638</v>
+        <v>963598</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1014769</v>
+        <v>1014316</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8384664181697584</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8145773080274097</v>
+        <v>0.8170874816246394</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8604787072016128</v>
+        <v>0.860094575667448</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>97490</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>79599</v>
+        <v>79028</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>116482</v>
+        <v>114918</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2352569486114902</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1920844167170631</v>
+        <v>0.1907061909441269</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2810884683202937</v>
+        <v>0.2773120650762722</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>163</v>
@@ -1872,19 +1872,19 @@
         <v>178381</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>156094</v>
+        <v>155885</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>201448</v>
+        <v>201524</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.281117177942955</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2459936716108315</v>
+        <v>0.2456642489607004</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3174686396623667</v>
+        <v>0.3175889297687683</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>248</v>
@@ -1893,19 +1893,19 @@
         <v>275871</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>246760</v>
+        <v>245258</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>307328</v>
+        <v>304518</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.262999523088816</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2352461857182634</v>
+        <v>0.2338150298370653</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2929880928640918</v>
+        <v>0.290310046751118</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>316908</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>297916</v>
+        <v>299480</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>334799</v>
+        <v>335370</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7647430513885098</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7189115316797063</v>
+        <v>0.722687934923728</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8079155832829369</v>
+        <v>0.8092938090558732</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>433</v>
@@ -1943,19 +1943,19 @@
         <v>456164</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>433097</v>
+        <v>433021</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>478451</v>
+        <v>478660</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7188828220570449</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.682531360337634</v>
+        <v>0.6824110702312318</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7540063283891687</v>
+        <v>0.7543357510392996</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>726</v>
@@ -1964,19 +1964,19 @@
         <v>773071</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>741614</v>
+        <v>744424</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>802182</v>
+        <v>803684</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.737000476911184</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7070119071359081</v>
+        <v>0.7096899532488823</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7647538142817365</v>
+        <v>0.7661849701629346</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>16882</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9758</v>
+        <v>9290</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>28154</v>
+        <v>26235</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1422685726769126</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08223407680240392</v>
+        <v>0.07828411917504347</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2372587437384595</v>
+        <v>0.2210871629238772</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>9</v>
@@ -2089,19 +2089,19 @@
         <v>9648</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4643</v>
+        <v>4405</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>17488</v>
+        <v>17536</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1161327489205217</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05589390029124742</v>
+        <v>0.05302374975339007</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2105138402628121</v>
+        <v>0.2110883161511465</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>24</v>
@@ -2110,19 +2110,19 @@
         <v>26530</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>16841</v>
+        <v>17150</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>36943</v>
+        <v>38852</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1315060696326991</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08347854208242582</v>
+        <v>0.08501092076593392</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1831221617967911</v>
+        <v>0.1925851266475848</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>101783</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>90511</v>
+        <v>92430</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>108907</v>
+        <v>109375</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8577314273230874</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7627412562615404</v>
+        <v>0.7789128370761227</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9177659231975961</v>
+        <v>0.9217158808249565</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>68</v>
@@ -2160,19 +2160,19 @@
         <v>73426</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>65586</v>
+        <v>65538</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>78431</v>
+        <v>78669</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8838672510794783</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7894861597371873</v>
+        <v>0.7889116838488539</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9441060997087524</v>
+        <v>0.94697625024661</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>158</v>
@@ -2181,19 +2181,19 @@
         <v>175209</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>164796</v>
+        <v>162887</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>184898</v>
+        <v>184589</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8684939303673009</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.816877838203209</v>
+        <v>0.8074148733524156</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9165214579175742</v>
+        <v>0.9149890792340664</v>
       </c>
     </row>
     <row r="9">
@@ -2288,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6046</v>
+        <v>6634</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07632111835967792</v>
@@ -2297,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2275192412363409</v>
+        <v>0.2496171206916632</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -2306,19 +2306,19 @@
         <v>3315</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>968</v>
+        <v>1000</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8015</v>
+        <v>8145</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1489954815624129</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04350604454880208</v>
+        <v>0.04494968908933143</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3603101526877457</v>
+        <v>0.3661207559904662</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>5</v>
@@ -2327,19 +2327,19 @@
         <v>5343</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2016</v>
+        <v>1993</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>11545</v>
+        <v>11367</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1094365042145028</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04128701340781653</v>
+        <v>0.04081517193110915</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2364748688281829</v>
+        <v>0.2328246966884542</v>
       </c>
     </row>
     <row r="11">
@@ -2356,7 +2356,7 @@
         <v>24547</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>20529</v>
+        <v>19941</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>26575</v>
@@ -2365,7 +2365,7 @@
         <v>0.9236788816403221</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7724807587636594</v>
+        <v>0.7503828793083349</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -2377,19 +2377,19 @@
         <v>18931</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>14231</v>
+        <v>14101</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>21278</v>
+        <v>21246</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8510045184375872</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6396898473122546</v>
+        <v>0.6338792440095338</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9564939554511979</v>
+        <v>0.9550503109106687</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>34</v>
@@ -2398,19 +2398,19 @@
         <v>43478</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>37276</v>
+        <v>37454</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>46805</v>
+        <v>46828</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8905634957854972</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7635251311718171</v>
+        <v>0.7671753033115445</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9587129865921835</v>
+        <v>0.9591848280688907</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>116400</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>96337</v>
+        <v>95353</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>138932</v>
+        <v>138893</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2079926793826373</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1721414536845844</v>
+        <v>0.1703829782223399</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2482533458573305</v>
+        <v>0.2481844182131615</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>175</v>
@@ -2523,19 +2523,19 @@
         <v>191344</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>167863</v>
+        <v>168604</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>216075</v>
+        <v>215774</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2586196144779916</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2268838232056353</v>
+        <v>0.2278853111289095</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2920465441500846</v>
+        <v>0.2916394135433391</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>277</v>
@@ -2544,19 +2544,19 @@
         <v>307744</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>278360</v>
+        <v>271187</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>341362</v>
+        <v>338358</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2368168714161529</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2142048406734569</v>
+        <v>0.2086850067415737</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2626867060331703</v>
+        <v>0.2603749081629369</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>443237</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>420705</v>
+        <v>420744</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>463300</v>
+        <v>464284</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7920073206173627</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7517466541426695</v>
+        <v>0.7518155817868384</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8278585463154157</v>
+        <v>0.8296170217776601</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>516</v>
@@ -2594,19 +2594,19 @@
         <v>548521</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>523790</v>
+        <v>524091</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>572002</v>
+        <v>571261</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7413803855220084</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7079534558499154</v>
+        <v>0.7083605864566608</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7731161767943647</v>
+        <v>0.7721146888710902</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>918</v>
@@ -2615,19 +2615,19 @@
         <v>991758</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>958140</v>
+        <v>961144</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1021142</v>
+        <v>1028315</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7631831285838471</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7373132939668297</v>
+        <v>0.7396250918370632</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7857951593265431</v>
+        <v>0.7913149932584264</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>70683</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>58533</v>
+        <v>56953</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>84109</v>
+        <v>85038</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1997259834705206</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.165393103298343</v>
+        <v>0.1609284298432141</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2376627817674504</v>
+        <v>0.2402872665432088</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>121</v>
@@ -2979,19 +2979,19 @@
         <v>151683</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>130165</v>
+        <v>131056</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>176467</v>
+        <v>176246</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2734220343208111</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.234634121988114</v>
+        <v>0.2362403794145107</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3180985223486989</v>
+        <v>0.3176999386570157</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>200</v>
@@ -3000,19 +3000,19 @@
         <v>222366</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>194765</v>
+        <v>194275</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>249804</v>
+        <v>248773</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2447191210050015</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2143432295626212</v>
+        <v>0.2138039922515246</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2749154077604994</v>
+        <v>0.2737806812180865</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>283218</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>269792</v>
+        <v>268863</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>295368</v>
+        <v>296948</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8002740165294795</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7623372182325496</v>
+        <v>0.7597127334567912</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.834606896701657</v>
+        <v>0.8390715701567858</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>350</v>
@@ -3050,19 +3050,19 @@
         <v>403074</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>378290</v>
+        <v>378511</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>424592</v>
+        <v>423701</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7265779656791889</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6819014776513012</v>
+        <v>0.6823000613429843</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7653658780118864</v>
+        <v>0.7637596205854893</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>657</v>
@@ -3071,19 +3071,19 @@
         <v>686292</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>658854</v>
+        <v>659885</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>713893</v>
+        <v>714383</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7552808789949984</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7250845922395006</v>
+        <v>0.7262193187819134</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7856567704373788</v>
+        <v>0.7861960077484752</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>14335</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8358</v>
+        <v>8336</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>23659</v>
+        <v>22769</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07445398912918111</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04340980039386136</v>
+        <v>0.04329672317376115</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1228847361192744</v>
+        <v>0.1182592373161179</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>21</v>
@@ -3196,19 +3196,19 @@
         <v>28042</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>17854</v>
+        <v>18425</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>41086</v>
+        <v>40771</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1490985857771096</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09492965023692085</v>
+        <v>0.09796484378996746</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2184539462212442</v>
+        <v>0.2167798763587797</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>37</v>
@@ -3217,19 +3217,19 @@
         <v>42376</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>30104</v>
+        <v>30609</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>55576</v>
+        <v>57105</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1113391358240337</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07909399978995386</v>
+        <v>0.08042112061859036</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1460207382534437</v>
+        <v>0.1500366243133902</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>178197</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>168873</v>
+        <v>169763</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>184174</v>
+        <v>184196</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9255460108708189</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8771152638807262</v>
+        <v>0.8817407626838828</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9565901996061389</v>
+        <v>0.9567032768262389</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>136</v>
@@ -3267,19 +3267,19 @@
         <v>160032</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>146988</v>
+        <v>147303</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>170220</v>
+        <v>169649</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8509014142228903</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7815460537787556</v>
+        <v>0.7832201236412202</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.905070349763079</v>
+        <v>0.9020351562100323</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>317</v>
@@ -3288,19 +3288,19 @@
         <v>338230</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>325030</v>
+        <v>323501</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>350502</v>
+        <v>349997</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8886608641759663</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8539792617465564</v>
+        <v>0.8499633756866091</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.920906000210046</v>
+        <v>0.9195788793814095</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>4068</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>913</v>
+        <v>1534</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9267</v>
+        <v>10289</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09678510067124776</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02173284303097456</v>
+        <v>0.03649432353040231</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2204824729845636</v>
+        <v>0.2448186688954535</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -3413,19 +3413,19 @@
         <v>3622</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1027</v>
+        <v>1039</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9670</v>
+        <v>10275</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1075727511649343</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03050583068121799</v>
+        <v>0.03086783359947991</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2871533792333615</v>
+        <v>0.3051193153617177</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>7</v>
@@ -3434,19 +3434,19 @@
         <v>7690</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3462</v>
+        <v>3529</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>15629</v>
+        <v>15814</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1015836258938589</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04573591432115938</v>
+        <v>0.04661626916145158</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2064465916563749</v>
+        <v>0.2088930718055416</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>37961</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>32762</v>
+        <v>31740</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>41116</v>
+        <v>40495</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9032148993287522</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7795175270154364</v>
+        <v>0.7551813311045463</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9782671569690254</v>
+        <v>0.9635056764695976</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>23</v>
@@ -3484,19 +3484,19 @@
         <v>30052</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>24004</v>
+        <v>23399</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>32647</v>
+        <v>32635</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8924272488350657</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7128466207666385</v>
+        <v>0.6948806846382823</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9694941693187821</v>
+        <v>0.9691321664005201</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>60</v>
@@ -3505,19 +3505,19 @@
         <v>68013</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>60074</v>
+        <v>59889</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>72241</v>
+        <v>72174</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8984163741061411</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7935534083436251</v>
+        <v>0.7911069281944583</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9542640856788406</v>
+        <v>0.9533837308385484</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>89086</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>73203</v>
+        <v>73284</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>106122</v>
+        <v>105186</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1513874928433098</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1243961058489984</v>
+        <v>0.1245345975803055</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.180337601634049</v>
+        <v>0.1787475953136772</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>145</v>
@@ -3630,19 +3630,19 @@
         <v>183347</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>158818</v>
+        <v>158675</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>211577</v>
+        <v>210016</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2361179116957457</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2045292211256312</v>
+        <v>0.2043456469346522</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2724738573923666</v>
+        <v>0.2704635843039859</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>244</v>
@@ -3651,19 +3651,19 @@
         <v>272433</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>239431</v>
+        <v>241938</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>303130</v>
+        <v>301381</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1995890665911185</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1754113409635867</v>
+        <v>0.1772484027575568</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2220781201030709</v>
+        <v>0.220797185314713</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>499377</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>482341</v>
+        <v>483277</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>515260</v>
+        <v>515179</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8486125071566902</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.819662398365951</v>
+        <v>0.8212524046863228</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8756038941510016</v>
+        <v>0.8754654024196945</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>509</v>
@@ -3701,19 +3701,19 @@
         <v>593158</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>564928</v>
+        <v>566489</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>617687</v>
+        <v>617830</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7638820883042543</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7275261426076334</v>
+        <v>0.7295364156960141</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7954707788743688</v>
+        <v>0.7956543530653478</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1034</v>
@@ -3722,19 +3722,19 @@
         <v>1092535</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1061838</v>
+        <v>1063587</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1125537</v>
+        <v>1123030</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8004109334088815</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7779218798969291</v>
+        <v>0.779202814685287</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8245886590364134</v>
+        <v>0.8227515972424432</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>74475</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>63163</v>
+        <v>62925</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>86627</v>
+        <v>86344</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2600922014575622</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2205853390170819</v>
+        <v>0.2197549067496326</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3025298038027914</v>
+        <v>0.3015431919492885</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>389</v>
@@ -4086,19 +4086,19 @@
         <v>205842</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>187843</v>
+        <v>189447</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>221016</v>
+        <v>222566</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.3843233949906201</v>
+        <v>0.38432339499062</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3507185427674718</v>
+        <v>0.3537122043417695</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.412654266487066</v>
+        <v>0.4155488672580038</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>510</v>
@@ -4107,19 +4107,19 @@
         <v>280317</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>258042</v>
+        <v>257685</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>301443</v>
+        <v>301793</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3410444666853633</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3139437737000628</v>
+        <v>0.3135085025407022</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3667465440221207</v>
+        <v>0.3671728639518346</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>211867</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>199715</v>
+        <v>199998</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>223179</v>
+        <v>223417</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7399077985424378</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6974701961972087</v>
+        <v>0.6984568080507109</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7794146609829182</v>
+        <v>0.7802450932503673</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>624</v>
@@ -4157,19 +4157,19 @@
         <v>329754</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>314580</v>
+        <v>313030</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>347753</v>
+        <v>346149</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6156766050093798</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5873457335129341</v>
+        <v>0.5844511327419963</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6492814572325282</v>
+        <v>0.6462877956582307</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>926</v>
@@ -4178,19 +4178,19 @@
         <v>541621</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>520495</v>
+        <v>520145</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>563896</v>
+        <v>564253</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6589555333146366</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6332534559778784</v>
+        <v>0.6328271360481652</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6860562262999372</v>
+        <v>0.6864914974592978</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>30899</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>22525</v>
+        <v>23192</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>39945</v>
+        <v>41240</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1019244694431452</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07430146683512005</v>
+        <v>0.0765032343305844</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1317640883828209</v>
+        <v>0.1360343955548968</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>76</v>
@@ -4303,19 +4303,19 @@
         <v>40099</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>32528</v>
+        <v>31943</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>48822</v>
+        <v>49383</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1454399959543879</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1179824498697528</v>
+        <v>0.1158594930959343</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1770794997652667</v>
+        <v>0.1791146567868152</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>123</v>
@@ -4324,19 +4324,19 @@
         <v>70998</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>59782</v>
+        <v>59953</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>84086</v>
+        <v>84507</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.122650382904153</v>
+        <v>0.1226503829041531</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1032748500631913</v>
+        <v>0.10357070521272</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1452605377648405</v>
+        <v>0.1459876846268033</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>272258</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>263212</v>
+        <v>261917</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>280632</v>
+        <v>279965</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.898075530556855</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8682359116171788</v>
+        <v>0.8639656044451037</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9256985331648803</v>
+        <v>0.923496765669416</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>450</v>
@@ -4374,19 +4374,19 @@
         <v>235606</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>226883</v>
+        <v>226322</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>243177</v>
+        <v>243762</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8545600040456123</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8229205002347334</v>
+        <v>0.8208853432131841</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8820175501302472</v>
+        <v>0.8841405069040655</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>828</v>
@@ -4395,19 +4395,19 @@
         <v>507865</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>494777</v>
+        <v>494356</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>519081</v>
+        <v>518910</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8773496170958468</v>
+        <v>0.8773496170958469</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8547394622351595</v>
+        <v>0.8540123153731968</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8967251499368087</v>
+        <v>0.8964292947872801</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>7577</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3902</v>
+        <v>3761</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14321</v>
+        <v>13788</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06469403359465373</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03331968557721317</v>
+        <v>0.03211313642829985</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1222823306547845</v>
+        <v>0.117726965654307</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -4520,19 +4520,19 @@
         <v>8078</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4760</v>
+        <v>4569</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>12927</v>
+        <v>12782</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.09749112292078856</v>
+        <v>0.09749112292078854</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05745188911840888</v>
+        <v>0.0551484859832863</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1560231797878761</v>
+        <v>0.1542730703408706</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>24</v>
@@ -4541,19 +4541,19 @@
         <v>15654</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10080</v>
+        <v>10033</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>22557</v>
+        <v>22049</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.07828293018423309</v>
+        <v>0.0782829301842331</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05040691337301416</v>
+        <v>0.0501739992848022</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1128005586902761</v>
+        <v>0.1102590063852672</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>109541</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>102797</v>
+        <v>103330</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>113216</v>
+        <v>113357</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9353059664053462</v>
+        <v>0.9353059664053461</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.877717669345215</v>
+        <v>0.882273034345693</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9666803144227868</v>
+        <v>0.9678868635717001</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>138</v>
@@ -4591,19 +4591,19 @@
         <v>74777</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>69928</v>
+        <v>70073</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>78095</v>
+        <v>78286</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9025088770792115</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8439768202121238</v>
+        <v>0.8457269296591294</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9425481108815911</v>
+        <v>0.9448515140167137</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>293</v>
@@ -4612,19 +4612,19 @@
         <v>184319</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>177416</v>
+        <v>177924</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>189893</v>
+        <v>189940</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9217170698157668</v>
+        <v>0.9217170698157671</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8871994413097239</v>
+        <v>0.8897409936147329</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9495930866269858</v>
+        <v>0.9498260007151976</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>112951</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>97626</v>
+        <v>98311</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>129867</v>
+        <v>130487</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1598479367165395</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1381600168385299</v>
+        <v>0.139128535174174</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1837865068791756</v>
+        <v>0.1846637156234997</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>479</v>
@@ -4737,19 +4737,19 @@
         <v>254018</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>234329</v>
+        <v>232449</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>275335</v>
+        <v>274093</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.2840870775566253</v>
+        <v>0.2840870775566254</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2620676337970055</v>
+        <v>0.2599643318939886</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.307926972987806</v>
+        <v>0.3065380516534236</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>657</v>
@@ -4758,19 +4758,19 @@
         <v>366969</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>341169</v>
+        <v>342157</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>395181</v>
+        <v>393126</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2292451616461904</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2131276655220722</v>
+        <v>0.2137450854179338</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2468687097502432</v>
+        <v>0.2455850095402021</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>593666</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>576750</v>
+        <v>576130</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>608991</v>
+        <v>608306</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8401520632834606</v>
+        <v>0.8401520632834604</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8162134931208241</v>
+        <v>0.8153362843765001</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8618399831614701</v>
+        <v>0.860871464825826</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1212</v>
@@ -4808,19 +4808,19 @@
         <v>640138</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>618821</v>
+        <v>620063</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>659827</v>
+        <v>661707</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7159129224433747</v>
+        <v>0.7159129224433745</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6920730270121939</v>
+        <v>0.6934619483465766</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7379323662029945</v>
+        <v>0.7400356681060116</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2047</v>
@@ -4829,19 +4829,19 @@
         <v>1233804</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1205592</v>
+        <v>1207647</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1259604</v>
+        <v>1258616</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7707548383538095</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7531312902497569</v>
+        <v>0.7544149904597981</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7868723344779277</v>
+        <v>0.7862549145820662</v>
       </c>
     </row>
     <row r="15">
